--- a/2022-05 HL7 May Connectathon/ConnectathonSampleData/Spreadsheets/CliniciansAndOrgs.xlsx
+++ b/2022-05 HL7 May Connectathon/ConnectathonSampleData/Spreadsheets/CliniciansAndOrgs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/PACIO/source/sample-data/2022-05 HL7 May Connectathon/ConnectathonSampleData/SpreadSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/PACIO/source/sample-data/2022-05 HL7 May Connectathon/ConnectathonSampleData/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C6D7E-6CB7-9247-881D-BD0D88D01C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF485FB1-D2AA-7742-AC91-67DF83DA7C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" xr2:uid="{0F9530E2-70DB-114C-B108-A7BCBF652D01}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="370">
   <si>
     <t>Organizations</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>Occupational Therapist</t>
-  </si>
-  <si>
-    <t>Practioner-DonHopmed</t>
   </si>
   <si>
     <t>Don</t>
@@ -1216,6 +1213,12 @@
   </si>
   <si>
     <t>Internal medicine</t>
+  </si>
+  <si>
+    <t>Practitioner-DonHopmed</t>
+  </si>
+  <si>
+    <t>Role-RN-SummerJohnson</t>
   </si>
 </sst>
 </file>
@@ -1964,10 +1967,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2127,7 +2130,9 @@
       <c r="D9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
@@ -2154,9 +2159,7 @@
       <c r="B11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
@@ -2165,9 +2168,7 @@
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
@@ -2176,9 +2177,7 @@
       <c r="B13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
@@ -2399,19 +2398,19 @@
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="G28" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="H28" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>10</v>
@@ -2422,13 +2421,13 @@
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="51" t="s">
         <v>98</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>99</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>84</v>
@@ -2445,19 +2444,19 @@
     </row>
     <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="C30" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="G30" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>10</v>
@@ -2468,28 +2467,28 @@
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="D31" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="E31" s="12">
         <v>3668788925</v>
       </c>
       <c r="F31" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>10</v>
@@ -2500,7 +2499,7 @@
     </row>
     <row r="32" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="21"/>
@@ -2509,13 +2508,13 @@
     </row>
     <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="51" t="s">
         <v>114</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>115</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>78</v>
@@ -2532,22 +2531,22 @@
     </row>
     <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="51" t="s">
-        <v>118</v>
-      </c>
       <c r="D34" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="12">
         <v>1928374650</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>90</v>
@@ -2564,13 +2563,13 @@
     </row>
     <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="51" t="s">
         <v>121</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>122</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>90</v>
@@ -2587,19 +2586,19 @@
     </row>
     <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="51" t="s">
-        <v>124</v>
-      </c>
       <c r="G36" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>10</v>
@@ -2610,19 +2609,19 @@
     </row>
     <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="51" t="s">
-        <v>127</v>
-      </c>
       <c r="G37" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>10</v>
@@ -2633,19 +2632,19 @@
     </row>
     <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="G38" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G38" s="45" t="s">
+      <c r="H38" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>10</v>
@@ -2656,13 +2655,13 @@
     </row>
     <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="51" t="s">
         <v>134</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>135</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>84</v>
@@ -2679,19 +2678,19 @@
     </row>
     <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="51" t="s">
-        <v>138</v>
-      </c>
       <c r="G40" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>10</v>
@@ -2702,22 +2701,22 @@
     </row>
     <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="51" t="s">
-        <v>141</v>
-      </c>
       <c r="D41" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="12">
         <v>9876543210</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>78</v>
@@ -2734,35 +2733,35 @@
     </row>
     <row r="42" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C42" s="56"/>
       <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="C43" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="51" t="s">
-        <v>145</v>
-      </c>
       <c r="D43" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="12">
         <v>2345678901</v>
       </c>
       <c r="F43" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="H43" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>10</v>
@@ -2773,28 +2772,28 @@
     </row>
     <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="C44" s="51" t="s">
-        <v>151</v>
-      </c>
       <c r="D44" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="12">
         <v>2346547890</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G44" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="I44" s="14" t="s">
         <v>10</v>
@@ -2805,7 +2804,7 @@
     </row>
     <row r="45" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C45" s="54"/>
       <c r="D45" s="22"/>
@@ -2813,16 +2812,16 @@
     </row>
     <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="C46" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="F46" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>84</v>
@@ -2839,13 +2838,13 @@
     </row>
     <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="C47" s="51" t="s">
         <v>159</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>160</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>84</v>
@@ -2862,22 +2861,22 @@
     </row>
     <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="F48" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="G48" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="H48" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="I48" s="14" t="s">
         <v>10</v>
@@ -2888,19 +2887,19 @@
     </row>
     <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C49" s="51" t="s">
-        <v>169</v>
-      </c>
       <c r="G49" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="I49" s="14" t="s">
         <v>10</v>
@@ -2911,26 +2910,26 @@
     </row>
     <row r="50" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="C51" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="G51" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="H51" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="I51" s="14" t="s">
         <v>10</v>
@@ -2941,7 +2940,7 @@
     </row>
     <row r="52" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="21"/>
@@ -2949,22 +2948,22 @@
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="C53" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="F53" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="G53" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="G53" s="45" t="s">
+      <c r="H53" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>10</v>
@@ -2975,22 +2974,22 @@
     </row>
     <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="C54" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="F54" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="G54" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="G54" s="45" t="s">
+      <c r="H54" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="I54" s="14" t="s">
         <v>10</v>
@@ -3001,22 +3000,22 @@
     </row>
     <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="C55" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="F55" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="G55" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="G55" s="45" t="s">
-        <v>193</v>
-      </c>
       <c r="H55" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I55" s="14" t="s">
         <v>10</v>
@@ -3027,22 +3026,22 @@
     </row>
     <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>88</v>
       </c>
       <c r="C56" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="G56" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="G56" s="45" t="s">
+      <c r="H56" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="I56" s="14" t="s">
         <v>10</v>
@@ -3053,16 +3052,16 @@
     </row>
     <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="C57" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="F57" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>84</v>
@@ -3079,7 +3078,7 @@
     </row>
     <row r="59" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C59" s="57"/>
       <c r="D59" s="41"/>
@@ -3089,19 +3088,19 @@
         <v>1</v>
       </c>
       <c r="B60" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="D60" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="E60" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="F60" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -3113,7 +3112,7 @@
     </row>
     <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>75</v>
@@ -3122,7 +3121,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>78</v>
@@ -3134,7 +3133,7 @@
     </row>
     <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>81</v>
@@ -3143,7 +3142,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>84</v>
@@ -3155,7 +3154,7 @@
     </row>
     <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>87</v>
@@ -3164,7 +3163,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E64" s="45" t="s">
         <v>90</v>
@@ -3176,19 +3175,19 @@
     </row>
     <row r="65" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>92</v>
+        <v>368</v>
       </c>
       <c r="C65" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E65" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
@@ -3197,16 +3196,16 @@
     </row>
     <row r="66" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>84</v>
@@ -3218,19 +3217,19 @@
     </row>
     <row r="67" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C67" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
@@ -3239,19 +3238,19 @@
     </row>
     <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C68" s="58" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
@@ -3260,7 +3259,7 @@
     </row>
     <row r="69" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C69" s="55"/>
       <c r="D69" s="21"/>
@@ -3268,16 +3267,16 @@
     </row>
     <row r="70" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C70" s="59" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>78</v>
@@ -3289,16 +3288,16 @@
     </row>
     <row r="71" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" s="59" t="s">
         <v>11</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>90</v>
@@ -3310,16 +3309,16 @@
     </row>
     <row r="72" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C72" s="59" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>90</v>
@@ -3333,19 +3332,19 @@
     </row>
     <row r="73" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>223</v>
       </c>
       <c r="C73" s="59" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J73" s="14"/>
       <c r="K73" s="37"/>
@@ -3356,19 +3355,19 @@
     </row>
     <row r="74" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C74" s="59" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
@@ -3379,19 +3378,19 @@
     </row>
     <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C75" s="59" t="s">
         <v>11</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E75" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J75" s="14"/>
       <c r="K75" s="37"/>
@@ -3402,16 +3401,16 @@
     </row>
     <row r="76" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C76" s="59" t="s">
         <v>11</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>84</v>
@@ -3425,19 +3424,19 @@
     </row>
     <row r="77" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C77" s="59" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
@@ -3446,84 +3445,88 @@
       <c r="N77" s="14"/>
       <c r="O77" s="14"/>
     </row>
-    <row r="78" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C78" s="56"/>
-      <c r="D78" s="21"/>
-    </row>
-    <row r="79" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>147</v>
-      </c>
+    <row r="78" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+    </row>
+    <row r="79" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="56"/>
+      <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C80" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="36"/>
-    </row>
-    <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C82" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="E81" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="60"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="36"/>
     </row>
     <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C83" s="58" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>84</v>
@@ -3531,416 +3534,433 @@
     </row>
     <row r="84" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C84" s="58" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>165</v>
+        <v>232</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C85" s="58" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="K85" s="11"/>
-    </row>
-    <row r="86" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K86" s="11"/>
+    </row>
+    <row r="87" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="54"/>
+      <c r="D87" s="22"/>
+    </row>
+    <row r="88" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="54"/>
-      <c r="D86" s="22"/>
-    </row>
-    <row r="87" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A87" s="12" t="s">
+      <c r="C88" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="17" t="s">
+      <c r="E88" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="55"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="34"/>
+    </row>
+    <row r="90" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A90" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E87" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="19" t="s">
+      <c r="B90" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="55"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="34"/>
-    </row>
-    <row r="89" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A89" s="12" t="s">
+      <c r="C90" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B89" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C89" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C90" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>242</v>
-      </c>
       <c r="E90" s="16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C92" s="58" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C93" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D93" s="17" t="s">
+      <c r="E94" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C95" s="58"/>
+      <c r="E95" s="45"/>
+    </row>
+    <row r="97" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="E93" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C94" s="58"/>
-      <c r="E94" s="45"/>
-    </row>
-    <row r="96" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="42" t="s">
+      <c r="C97" s="61"/>
+      <c r="D97" s="43"/>
+    </row>
+    <row r="98" spans="1:5" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="C96" s="61"/>
-      <c r="D96" s="43"/>
-    </row>
-    <row r="97" spans="1:5" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B97" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" s="61" t="s">
+      <c r="D98" s="43" t="s">
         <v>250</v>
-      </c>
-      <c r="D97" s="43" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C98" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>7</v>
+        <v>252</v>
       </c>
       <c r="C99" s="51" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C100" s="51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C101" s="51" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C102" s="51" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C103" s="51" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C104" s="51" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C105" s="51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B106" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="62" t="s">
+      <c r="C107" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E107" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D106" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="E106" s="12" t="s">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="11" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
+      <c r="B108" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B107" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
+      <c r="B109" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B108" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A109" s="12" t="s">
+      <c r="B110" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="B109" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C109" s="51" t="s">
+      <c r="D110" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D109" s="17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B110" s="12" t="s">
+      <c r="B111" s="12" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A111" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C111" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B112" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C112" s="62" t="s">
-        <v>271</v>
+        <v>239</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C112" s="51" t="s">
+        <v>269</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B113" s="47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C113" s="62" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B114" s="47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C114" s="62" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B115" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C115" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B116" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="B115" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C115" s="62" t="s">
-        <v>275</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>255</v>
+      <c r="D116" s="17" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3972,7 +3992,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>70</v>
@@ -3981,10 +4001,10 @@
         <v>71</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4001,7 +4021,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4020,13 +4040,13 @@
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
         <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>111</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>10</v>
@@ -4048,13 +4068,13 @@
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" t="s">
         <v>165</v>
-      </c>
-      <c r="B6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" t="s">
-        <v>166</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>10</v>
@@ -4077,7 +4097,7 @@
         <v>224535009</v>
       </c>
       <c r="F7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4088,27 +4108,27 @@
         <v>36682004</v>
       </c>
       <c r="C8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E8">
         <v>36682004</v>
       </c>
       <c r="F8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>10</v>
@@ -4117,18 +4137,18 @@
         <v>80546007</v>
       </c>
       <c r="F9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
@@ -4136,13 +4156,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>10</v>
@@ -4150,13 +4170,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>10</v>
@@ -4164,13 +4184,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>10</v>
@@ -4178,13 +4198,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>10</v>
@@ -4192,13 +4212,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>10</v>
@@ -4206,13 +4226,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>10</v>
@@ -4220,13 +4240,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>10</v>
@@ -4248,13 +4268,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>10</v>
@@ -4291,16 +4311,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" t="s">
         <v>361</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>362</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>363</v>
-      </c>
-      <c r="D1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4314,7 +4334,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4328,21 +4348,21 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4356,21 +4376,21 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4450,7 +4470,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4458,24 +4478,24 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
         <v>204</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>205</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>206</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>207</v>
-      </c>
-      <c r="F8" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -4486,10 +4506,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" t="s">
         <v>250</v>
-      </c>
-      <c r="D11" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4532,15 +4552,15 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -4548,7 +4568,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -4556,7 +4576,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -4564,7 +4584,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -4603,13 +4623,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G11" t="s">
         <v>80</v>
@@ -4617,13 +4637,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
         <v>116</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>117</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
       </c>
       <c r="G12" t="s">
         <v>80</v>
@@ -4631,13 +4651,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>102</v>
       </c>
       <c r="G13" t="s">
         <v>80</v>
@@ -4645,39 +4665,39 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
         <v>143</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>144</v>
       </c>
-      <c r="C14" t="s">
-        <v>145</v>
-      </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14">
         <v>4278275001</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
         <v>154</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>155</v>
-      </c>
-      <c r="C15" t="s">
-        <v>156</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -4685,13 +4705,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" t="s">
         <v>133</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>134</v>
-      </c>
-      <c r="C16" t="s">
-        <v>135</v>
       </c>
       <c r="G16" t="s">
         <v>86</v>
@@ -4699,13 +4719,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s">
         <v>136</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>137</v>
-      </c>
-      <c r="C17" t="s">
-        <v>138</v>
       </c>
       <c r="G17" t="s">
         <v>80</v>
@@ -4713,13 +4733,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>159</v>
-      </c>
-      <c r="C18" t="s">
-        <v>160</v>
       </c>
       <c r="G18" t="s">
         <v>80</v>
@@ -4727,39 +4747,39 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
         <v>105</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>107</v>
-      </c>
-      <c r="D19" t="s">
-        <v>108</v>
       </c>
       <c r="E19">
         <v>3668788925</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" t="s">
         <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G20" t="s">
         <v>86</v>
@@ -4781,7 +4801,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -4789,24 +4809,24 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" t="s">
         <v>204</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>205</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>206</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>207</v>
-      </c>
-      <c r="F24" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E25">
         <v>224535009</v>
@@ -4814,27 +4834,27 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" t="s">
         <v>286</v>
       </c>
-      <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" t="s">
-        <v>280</v>
-      </c>
-      <c r="D26" t="s">
-        <v>287</v>
-      </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E27">
         <v>36682004</v>
@@ -4842,7 +4862,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E28">
         <v>80546007</v>
@@ -4850,27 +4870,27 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" t="s">
         <v>290</v>
-      </c>
-      <c r="B29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" t="s">
-        <v>276</v>
-      </c>
-      <c r="D29" t="s">
-        <v>291</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -4881,80 +4901,80 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" t="s">
         <v>250</v>
-      </c>
-      <c r="D32" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4997,15 +5017,15 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
         <v>276</v>
-      </c>
-      <c r="B3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -5013,7 +5033,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -5021,7 +5041,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -5060,13 +5080,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G10" t="s">
         <v>80</v>
@@ -5074,13 +5094,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
         <v>116</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>117</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
       </c>
       <c r="G11" t="s">
         <v>80</v>
@@ -5088,13 +5108,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
         <v>143</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>144</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -5102,13 +5122,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" t="s">
         <v>154</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>155</v>
-      </c>
-      <c r="C13" t="s">
-        <v>156</v>
       </c>
       <c r="G13" t="s">
         <v>86</v>
@@ -5116,13 +5136,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
         <v>133</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>135</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -5130,13 +5150,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s">
         <v>158</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>159</v>
-      </c>
-      <c r="C15" t="s">
-        <v>160</v>
       </c>
       <c r="G15" t="s">
         <v>80</v>
@@ -5144,28 +5164,28 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>106</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>107</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
       </c>
       <c r="E16">
         <v>3668788925</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
         <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -5184,7 +5204,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -5192,33 +5212,33 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" t="s">
         <v>204</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>205</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>206</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>207</v>
-      </c>
-      <c r="F20" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E21">
         <v>36682004</v>
@@ -5226,16 +5246,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E22">
         <v>36682004</v>
@@ -5243,16 +5263,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E23">
         <v>80546007</v>
@@ -5260,16 +5280,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E24">
         <v>80546007</v>
@@ -5277,16 +5297,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s">
         <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E25">
         <v>36682004</v>
@@ -5294,16 +5314,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" t="s">
         <v>290</v>
-      </c>
-      <c r="B26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" t="s">
-        <v>276</v>
-      </c>
-      <c r="D26" t="s">
-        <v>291</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
@@ -5311,16 +5331,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E27">
         <v>36682004</v>
@@ -5328,7 +5348,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -5339,66 +5359,66 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" t="s">
         <v>250</v>
-      </c>
-      <c r="D30" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5449,15 +5469,15 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -5465,7 +5485,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -5473,15 +5493,15 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -5520,13 +5540,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
         <v>100</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
       </c>
       <c r="G12" t="s">
         <v>80</v>
@@ -5534,16 +5554,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
         <v>143</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>144</v>
       </c>
-      <c r="C13" t="s">
-        <v>145</v>
-      </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13">
         <v>4278275001</v>
@@ -5554,13 +5574,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
         <v>136</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>137</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
       </c>
       <c r="G14" t="s">
         <v>80</v>
@@ -5568,13 +5588,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s">
         <v>158</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>159</v>
-      </c>
-      <c r="C15" t="s">
-        <v>160</v>
       </c>
       <c r="G15" t="s">
         <v>80</v>
@@ -5582,16 +5602,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>106</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>107</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
       </c>
       <c r="E16">
         <v>3668788925</v>
@@ -5602,7 +5622,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -5610,33 +5630,33 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" t="s">
         <v>204</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>205</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>206</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>207</v>
-      </c>
-      <c r="F19" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E20">
         <v>159026005</v>
@@ -5644,16 +5664,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E21">
         <v>159026005</v>
@@ -5661,33 +5681,33 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" t="s">
         <v>286</v>
       </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" t="s">
-        <v>280</v>
-      </c>
-      <c r="D22" t="s">
-        <v>287</v>
-      </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E23">
         <v>159026005</v>
@@ -5695,16 +5715,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" t="s">
         <v>290</v>
-      </c>
-      <c r="B24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D24" t="s">
-        <v>291</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
@@ -5712,7 +5732,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -5723,80 +5743,80 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D27" t="s">
         <v>250</v>
-      </c>
-      <c r="D27" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5839,7 +5859,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -5847,7 +5867,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -5886,7 +5906,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5894,24 +5914,24 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" t="s">
         <v>204</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>205</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>206</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>207</v>
-      </c>
-      <c r="F10" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -5922,10 +5942,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" t="s">
         <v>250</v>
-      </c>
-      <c r="D13" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -5968,7 +5988,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
@@ -6007,16 +6027,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" t="s">
         <v>304</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" t="s">
         <v>305</v>
-      </c>
-      <c r="C7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" t="s">
-        <v>306</v>
       </c>
       <c r="G7" t="s">
         <v>80</v>
@@ -6024,16 +6044,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G8" t="s">
         <v>80</v>
@@ -6041,16 +6061,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
         <v>126</v>
       </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
       <c r="F9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G9" t="s">
         <v>80</v>
@@ -6058,16 +6078,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
         <v>309</v>
       </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
-        <v>310</v>
-      </c>
       <c r="F10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G10" t="s">
         <v>86</v>
@@ -6075,16 +6095,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" t="s">
         <v>311</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>312</v>
       </c>
-      <c r="C11" t="s">
-        <v>313</v>
-      </c>
       <c r="F11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G11" t="s">
         <v>80</v>
@@ -6092,16 +6112,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" t="s">
         <v>314</v>
       </c>
-      <c r="B12" t="s">
-        <v>315</v>
-      </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -6109,7 +6129,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -6117,24 +6137,24 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" t="s">
         <v>204</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>205</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>206</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>207</v>
-      </c>
-      <c r="F15" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6145,10 +6165,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" t="s">
         <v>250</v>
-      </c>
-      <c r="D18" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -6191,7 +6211,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -6199,7 +6219,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -6238,107 +6258,107 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" t="s">
         <v>318</v>
-      </c>
-      <c r="B8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" t="s">
-        <v>319</v>
       </c>
       <c r="E8">
         <v>11223344</v>
       </c>
       <c r="F8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E9">
         <v>987654</v>
       </c>
       <c r="F9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
         <v>323</v>
-      </c>
-      <c r="B10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" t="s">
-        <v>324</v>
       </c>
       <c r="E10">
         <v>9941339108</v>
       </c>
       <c r="F10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" t="s">
         <v>200</v>
       </c>
-      <c r="C11" t="s">
-        <v>201</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E11">
         <v>987657</v>
       </c>
       <c r="F11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" t="s">
         <v>184</v>
       </c>
-      <c r="C12" t="s">
-        <v>185</v>
-      </c>
       <c r="D12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E12">
         <v>9941339109</v>
       </c>
       <c r="F12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -6346,24 +6366,24 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" t="s">
         <v>204</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>205</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>206</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>207</v>
-      </c>
-      <c r="F15" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6374,21 +6394,21 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" t="s">
         <v>250</v>
-      </c>
-      <c r="D18" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" t="s">
         <v>253</v>
-      </c>
-      <c r="C19" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -6434,7 +6454,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -6442,7 +6462,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -6481,249 +6501,249 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
         <v>139</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>140</v>
       </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>9876543210</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
         <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
         <v>116</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>117</v>
       </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9">
         <v>1928374650</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
         <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
         <v>161</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>162</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" t="s">
-        <v>164</v>
       </c>
       <c r="G10" t="s">
         <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
         <v>143</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>144</v>
       </c>
-      <c r="C11" t="s">
-        <v>145</v>
-      </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11">
         <v>2345678901</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
       </c>
       <c r="H11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
         <v>154</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>155</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>156</v>
-      </c>
-      <c r="F12" t="s">
-        <v>157</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
         <v>133</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>134</v>
       </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13">
         <v>1098326745</v>
       </c>
       <c r="F13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G13" t="s">
         <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s">
         <v>158</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>159</v>
       </c>
-      <c r="C14" t="s">
-        <v>160</v>
-      </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
         <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
         <v>105</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>106</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>107</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
       </c>
       <c r="E15">
         <v>3668788925</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
         <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
         <v>113</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>114</v>
       </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16">
         <v>9018273645</v>
       </c>
       <c r="F16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G16" t="s">
         <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s">
         <v>167</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>168</v>
       </c>
-      <c r="C17" t="s">
-        <v>169</v>
-      </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17">
         <v>4567123789</v>
       </c>
       <c r="F17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -6731,33 +6751,33 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" t="s">
         <v>204</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>205</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>206</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>207</v>
-      </c>
-      <c r="F20" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21" t="s">
         <v>337</v>
-      </c>
-      <c r="B21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" t="s">
-        <v>331</v>
-      </c>
-      <c r="D21" t="s">
-        <v>338</v>
       </c>
       <c r="E21" t="s">
         <v>84</v>
@@ -6768,16 +6788,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" t="s">
         <v>339</v>
-      </c>
-      <c r="B22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" t="s">
-        <v>332</v>
-      </c>
-      <c r="D22" t="s">
-        <v>340</v>
       </c>
       <c r="E22" t="s">
         <v>78</v>
@@ -6788,13 +6808,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23">
         <v>394591006</v>
@@ -6802,10 +6822,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
@@ -6816,16 +6836,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E25" t="s">
         <v>84</v>
@@ -6836,16 +6856,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E26" t="s">
         <v>78</v>
@@ -6856,16 +6876,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E27" t="s">
         <v>84</v>
@@ -6876,19 +6896,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F28">
         <v>408443003</v>
@@ -6896,19 +6916,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F29">
         <v>408443003</v>
@@ -6916,16 +6936,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E30" t="s">
         <v>84</v>
@@ -6936,7 +6956,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -6947,38 +6967,38 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" t="s">
         <v>250</v>
-      </c>
-      <c r="D33" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -7022,7 +7042,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -7030,7 +7050,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -7038,7 +7058,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -7077,269 +7097,269 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
         <v>139</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>140</v>
       </c>
-      <c r="C9" t="s">
-        <v>141</v>
-      </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9">
         <v>9876543210</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
         <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
         <v>116</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>117</v>
       </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10">
         <v>1928374650</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
         <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
         <v>161</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>162</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>163</v>
-      </c>
-      <c r="F11" t="s">
-        <v>164</v>
       </c>
       <c r="G11" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
         <v>143</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12">
         <v>2345678901</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" t="s">
         <v>154</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>155</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>156</v>
-      </c>
-      <c r="F13" t="s">
-        <v>157</v>
       </c>
       <c r="G13" t="s">
         <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
         <v>133</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>134</v>
       </c>
-      <c r="C14" t="s">
-        <v>135</v>
-      </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14">
         <v>1098326745</v>
       </c>
       <c r="F14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s">
         <v>158</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>159</v>
       </c>
-      <c r="C15" t="s">
-        <v>160</v>
-      </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
         <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>106</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>107</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
       </c>
       <c r="E16">
         <v>3668788925</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
         <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
         <v>113</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>114</v>
       </c>
-      <c r="C17" t="s">
-        <v>115</v>
-      </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17">
         <v>9018273645</v>
       </c>
       <c r="F17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G17" t="s">
         <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" t="s">
         <v>167</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>168</v>
       </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>4567123789</v>
       </c>
       <c r="F18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" t="s">
         <v>171</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>172</v>
       </c>
-      <c r="C19" t="s">
-        <v>173</v>
-      </c>
       <c r="F19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G19" t="s">
         <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -7347,33 +7367,33 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" t="s">
         <v>204</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>205</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>206</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>207</v>
-      </c>
-      <c r="F22" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>336</v>
+      </c>
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" t="s">
+        <v>330</v>
+      </c>
+      <c r="D23" t="s">
         <v>337</v>
-      </c>
-      <c r="B23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" t="s">
-        <v>331</v>
-      </c>
-      <c r="D23" t="s">
-        <v>338</v>
       </c>
       <c r="E23" t="s">
         <v>84</v>
@@ -7384,16 +7404,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>331</v>
+      </c>
+      <c r="D24" t="s">
         <v>339</v>
-      </c>
-      <c r="B24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" t="s">
-        <v>332</v>
-      </c>
-      <c r="D24" t="s">
-        <v>340</v>
       </c>
       <c r="E24" t="s">
         <v>78</v>
@@ -7404,13 +7424,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25">
         <v>394591006</v>
@@ -7418,10 +7438,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
@@ -7432,16 +7452,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E27" t="s">
         <v>84</v>
@@ -7452,16 +7472,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E28" t="s">
         <v>78</v>
@@ -7472,16 +7492,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E29" t="s">
         <v>84</v>
@@ -7492,19 +7512,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F30">
         <v>408443003</v>
@@ -7512,19 +7532,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F31">
         <v>408443003</v>
@@ -7532,16 +7552,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E32" t="s">
         <v>84</v>
@@ -7552,24 +7572,24 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>350</v>
+      </c>
+      <c r="B33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D33" t="s">
         <v>351</v>
       </c>
-      <c r="B33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" t="s">
-        <v>349</v>
-      </c>
-      <c r="D33" t="s">
-        <v>352</v>
-      </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -7580,52 +7600,52 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" t="s">
         <v>250</v>
-      </c>
-      <c r="D36" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/2022-05 HL7 May Connectathon/ConnectathonSampleData/Spreadsheets/CliniciansAndOrgs.xlsx
+++ b/2022-05 HL7 May Connectathon/ConnectathonSampleData/Spreadsheets/CliniciansAndOrgs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/PACIO/source/sample-data/2022-05 HL7 May Connectathon/ConnectathonSampleData/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF485FB1-D2AA-7742-AC91-67DF83DA7C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4E67F2-85CD-3747-B03F-0397A84EE592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" xr2:uid="{0F9530E2-70DB-114C-B108-A7BCBF652D01}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     <author>tc={E6CBB79E-41D1-4943-8E62-17C84F3A6423}</author>
   </authors>
   <commentList>
-    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{E6CBB79E-41D1-4943-8E62-17C84F3A6423}">
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{E6CBB79E-41D1-4943-8E62-17C84F3A6423}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="311">
   <si>
     <t>Organizations</t>
   </si>
@@ -209,96 +209,21 @@
     <t>Michigan Primary Health Care Associates</t>
   </si>
   <si>
-    <t>org-Transporter-Inc</t>
-  </si>
-  <si>
     <t>The Transporter, Inc.</t>
   </si>
   <si>
-    <t>347E00000X</t>
-  </si>
-  <si>
-    <t>Transportation Broker</t>
-  </si>
-  <si>
-    <t>org-custodian-Advance-Directives-1</t>
-  </si>
-  <si>
     <t>MyDirectives.com</t>
   </si>
   <si>
-    <t>org-assembler-Advance-Directives-1</t>
-  </si>
-  <si>
     <t>ADVault, Inc.</t>
   </si>
   <si>
-    <t>org-funding-Texas-Dept-Comm-Health</t>
-  </si>
-  <si>
     <t>Texas Department of Community Health</t>
   </si>
   <si>
-    <t>org-food-meals-on-wheels</t>
-  </si>
-  <si>
     <t>Meals on Wheels</t>
   </si>
   <si>
-    <t>332U00000X</t>
-  </si>
-  <si>
-    <t>Home Delivered Meals</t>
-  </si>
-  <si>
-    <t>org-eLTSS-Support-Planner-Services</t>
-  </si>
-  <si>
-    <t>Support Planner Services LLC</t>
-  </si>
-  <si>
-    <t>251B00000X</t>
-  </si>
-  <si>
-    <t>Case Management Agency</t>
-  </si>
-  <si>
-    <t>org-eLTSS-CaseManaging4U</t>
-  </si>
-  <si>
-    <t>Case Managing 4 U</t>
-  </si>
-  <si>
-    <t>org-eLTSS-Health-Educators-Inc</t>
-  </si>
-  <si>
-    <t>Health Educators, Inc.</t>
-  </si>
-  <si>
-    <t>251J00000X</t>
-  </si>
-  <si>
-    <t>Nursing Care Agency</t>
-  </si>
-  <si>
-    <t>org-eLTSS-Therapists-To-Go</t>
-  </si>
-  <si>
-    <t>Therapists To Go</t>
-  </si>
-  <si>
-    <t>261QP2000X</t>
-  </si>
-  <si>
-    <t>Physical Therapy Clinic/Center</t>
-  </si>
-  <si>
-    <t>org-eLTSS-Home-Contractor-LLC</t>
-  </si>
-  <si>
-    <t>Home Contractor LLC</t>
-  </si>
-  <si>
     <t>Practitioners</t>
   </si>
   <si>
@@ -635,87 +560,54 @@
     <t>Audiologist</t>
   </si>
   <si>
-    <t>eLTSS</t>
-  </si>
-  <si>
-    <t>eLTSS-MarkPlanner</t>
-  </si>
-  <si>
     <t>Mark</t>
   </si>
   <si>
     <t>Planner</t>
   </si>
   <si>
-    <t>(210) 555-1221</t>
-  </si>
-  <si>
     <t>104100000X</t>
   </si>
   <si>
     <t>Social Worker</t>
   </si>
   <si>
-    <t>eLTSS-SamMonitor</t>
-  </si>
-  <si>
     <t>Sam</t>
   </si>
   <si>
     <t>Monitor</t>
   </si>
   <si>
-    <t>(210) 224-1599</t>
-  </si>
-  <si>
     <t>163WC0400X</t>
   </si>
   <si>
     <t>Case Management Registered Nurse</t>
   </si>
   <si>
-    <t>eLTSS-BillDriver</t>
-  </si>
-  <si>
     <t>Bill</t>
   </si>
   <si>
     <t>Driver</t>
   </si>
   <si>
-    <t>(210)111-2222</t>
-  </si>
-  <si>
     <t>172A00000X</t>
   </si>
   <si>
-    <t>eLTSS-LisaEducator</t>
-  </si>
-  <si>
     <t>Educator</t>
   </si>
   <si>
-    <t>(210) 555-1213</t>
-  </si>
-  <si>
     <t>163WD0400X</t>
   </si>
   <si>
     <t>Diabetes Educator Registered Nurse</t>
   </si>
   <si>
-    <t>eLTSS-NormaTrainer</t>
-  </si>
-  <si>
     <t>Norma</t>
   </si>
   <si>
     <t>Trainer</t>
   </si>
   <si>
-    <t>(210) 555-1214</t>
-  </si>
-  <si>
     <t>PractitionerRoles</t>
   </si>
   <si>
@@ -824,36 +716,6 @@
     <t>org-Loc-Audiology-Advanced-Hearing-Care</t>
   </si>
   <si>
-    <t>Role-SW-MarkPlanner</t>
-  </si>
-  <si>
-    <t>org-Loc-eLTSS-Support-Planner-Services</t>
-  </si>
-  <si>
-    <t>Role-RNCM-SamMonitor</t>
-  </si>
-  <si>
-    <t>org-Loc-eLTSS-CaseManaging4U</t>
-  </si>
-  <si>
-    <t>Role-Driver-BillDriver</t>
-  </si>
-  <si>
-    <t>org-Loc-Transporter-Inc</t>
-  </si>
-  <si>
-    <t>Role-CDCES-eLTSS-LisaEducator</t>
-  </si>
-  <si>
-    <t>org-Loc-eLTSS-Health-Educators-Inc</t>
-  </si>
-  <si>
-    <t>Role-PT-NormaTrainer</t>
-  </si>
-  <si>
-    <t>org-Loc-eLTSS-Therapists-To-Go</t>
-  </si>
-  <si>
     <t>Locations</t>
   </si>
   <si>
@@ -894,45 +756,6 @@
   </si>
   <si>
     <t>26100 Meadowlark Bay, San Antonio, TX 78260</t>
-  </si>
-  <si>
-    <t>111 Business Street, San Antonio, TX 78212</t>
-  </si>
-  <si>
-    <t>(210) 555-1313</t>
-  </si>
-  <si>
-    <t>org-Loc-custodian-Advance-Directives-1</t>
-  </si>
-  <si>
-    <t>org-Loc-assembler-Advance-Directives-1</t>
-  </si>
-  <si>
-    <t>org-Loc-funding-Texas-Dept-Comm-Health</t>
-  </si>
-  <si>
-    <t>7430 Louis Pasteur Dr., San Antonio, TX 78229</t>
-  </si>
-  <si>
-    <t>org-Loc-food-meals-on-wheels</t>
-  </si>
-  <si>
-    <t>222 Service Sr., San Antonio, TX 78212</t>
-  </si>
-  <si>
-    <t>333 Manage St., San Antonio, TX 78212</t>
-  </si>
-  <si>
-    <t>444 Educate St., San Antonio, TX 78212</t>
-  </si>
-  <si>
-    <t>555 Move St., San Antonio, TX 78212</t>
-  </si>
-  <si>
-    <t>org-Loc-eLTSS-Home-Contractor-LLC</t>
-  </si>
-  <si>
-    <t>100 Montana St., San Antonio, TX 78212</t>
   </si>
   <si>
     <t>provider-org-01</t>
@@ -1225,7 +1048,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1365,12 +1188,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1498,7 +1315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1575,45 +1392,41 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1937,7 +1750,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E23" dT="2022-04-13T02:39:50.54" personId="{76140E01-272B-45D8-B0E4-AD009A09EE58}" id="{E6CBB79E-41D1-4943-8E62-17C84F3A6423}">
+  <threadedComment ref="E13" dT="2022-04-13T02:39:50.54" personId="{76140E01-272B-45D8-B0E4-AD009A09EE58}" id="{E6CBB79E-41D1-4943-8E62-17C84F3A6423}">
     <text>These are sample NPI numbers for the practitioners (for billing and identification purposes).</text>
   </threadedComment>
 </ThreadedComments>
@@ -1967,17 +1780,17 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:O116"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.1640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="32.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.83203125" style="17" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="12" bestFit="1" customWidth="1"/>
@@ -1991,21 +1804,21 @@
     <col min="14" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49"/>
+      <c r="C1" s="48"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:6" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="27" t="s">
@@ -2015,14 +1828,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -2032,14 +1845,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -2049,14 +1862,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -2066,7 +1879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
@@ -2083,7 +1896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
@@ -2100,7 +1913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
@@ -2110,14 +1923,14 @@
       <c r="C8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -2134,1833 +1947,1337 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="14" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="46"/>
+      <c r="C10" s="16"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="12" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="47"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="J15" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="G16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>10</v>
+      <c r="J16" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="G17" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="H19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="I19" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="47"/>
-      <c r="C20" s="16"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="22" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="30"/>
-    </row>
-    <row r="23" spans="1:13" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="53" t="s">
+      <c r="J19" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="12">
+        <v>3668788925</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="34"/>
+      <c r="M22" s="35"/>
+    </row>
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1928374650</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="H24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="22"/>
+      <c r="I24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>75</v>
+      <c r="A25" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>96</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>81</v>
+      <c r="A26" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="15"/>
+        <v>97</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>98</v>
+      </c>
       <c r="G26" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>87</v>
+      <c r="A27" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="G27" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="J27" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>368</v>
+      <c r="A28" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>105</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>98</v>
+        <v>108</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>109</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>101</v>
+        <v>111</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>112</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>104</v>
+      <c r="A31" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>106</v>
+        <v>114</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>115</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E31" s="12">
-        <v>3668788925</v>
+        <v>9876543210</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>110</v>
+        <v>53</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="34"/>
-      <c r="M32" s="35"/>
-    </row>
-    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>112</v>
+    </row>
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="12">
+        <v>2345678901</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>125</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E34" s="12">
-        <v>1928374650</v>
+        <v>2346547890</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>90</v>
+        <v>126</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>121</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>222</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="53"/>
+      <c r="D35" s="22"/>
+      <c r="G35" s="47"/>
+    </row>
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>103</v>
+        <v>59</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>124</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>126</v>
+        <v>133</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>134</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>103</v>
+        <v>59</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>127</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="G38" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>131</v>
+        <v>136</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>85</v>
+        <v>142</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>138</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="53"/>
+      <c r="D40" s="22"/>
+    </row>
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="12">
-        <v>9876543210</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>78</v>
+        <v>146</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="21"/>
-    </row>
-    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="56"/>
+      <c r="D43" s="41"/>
+    </row>
+    <row r="44" spans="1:13" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="22"/>
+    </row>
+    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+    </row>
+    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+    </row>
+    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+    </row>
+    <row r="50" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+    </row>
+    <row r="51" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+    </row>
+    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+    </row>
+    <row r="53" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="34"/>
+    </row>
+    <row r="54" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+    </row>
+    <row r="55" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J55" s="14"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+    </row>
+    <row r="56" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J56" s="14"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+    </row>
+    <row r="57" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+    </row>
+    <row r="58" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+    </row>
+    <row r="59" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="J59" s="14"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+    </row>
+    <row r="60" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="12">
-        <v>2345678901</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="12">
-        <v>2346547890</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="22"/>
-      <c r="G45" s="48"/>
-    </row>
-    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" s="54"/>
-      <c r="D50" s="22"/>
-    </row>
-    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="34"/>
-    </row>
-    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G53" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="C60" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G54" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" s="51" t="s">
+      <c r="E60" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+    </row>
+    <row r="61" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="F55" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G55" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G56" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C57" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="41"/>
-    </row>
-    <row r="60" spans="1:13" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C60" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="22"/>
-    </row>
-    <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B61" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+    </row>
+    <row r="62" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="51" t="s">
-        <v>6</v>
+        <v>310</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="58" t="s">
+        <v>11</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>78</v>
+        <v>182</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
+    <row r="63" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="55"/>
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="59"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="36"/>
+    </row>
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K70" s="11"/>
+    </row>
+    <row r="71" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="53"/>
+      <c r="D71" s="22"/>
+    </row>
+    <row r="72" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C73" s="57"/>
+      <c r="E73" s="44"/>
+    </row>
+    <row r="75" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="60"/>
+      <c r="D75" s="43"/>
+    </row>
+    <row r="76" spans="1:11" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-    </row>
-    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="12" t="s">
+      <c r="D79" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E64" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-    </row>
-    <row r="65" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
+      <c r="D80" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A81" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="C65" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E65" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-    </row>
-    <row r="66" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="s">
+      <c r="D81" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-    </row>
-    <row r="67" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="12" t="s">
+      <c r="D82" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A83" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-    </row>
-    <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="12" t="s">
+      <c r="D83" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-    </row>
-    <row r="69" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" s="55"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="34"/>
-    </row>
-    <row r="70" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-    </row>
-    <row r="71" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J71" s="14"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-    </row>
-    <row r="72" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C72" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-    </row>
-    <row r="73" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C73" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J73" s="14"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-    </row>
-    <row r="74" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-    </row>
-    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E75" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="J75" s="14"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-    </row>
-    <row r="76" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C76" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
-    </row>
-    <row r="77" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-    </row>
-    <row r="78" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-    </row>
-    <row r="79" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="56"/>
-      <c r="D79" s="21"/>
-    </row>
-    <row r="80" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C80" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C81" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="36"/>
-    </row>
-    <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C83" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="58" t="s">
-        <v>15</v>
-      </c>
       <c r="D84" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C85" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C86" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="K86" s="11"/>
-    </row>
-    <row r="87" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C87" s="54"/>
-      <c r="D87" s="22"/>
-    </row>
-    <row r="88" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A88" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C88" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C89" s="55"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="34"/>
-    </row>
-    <row r="90" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A90" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C90" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C91" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C92" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C93" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="E94" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C95" s="58"/>
-      <c r="E95" s="45"/>
-    </row>
-    <row r="97" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="C97" s="61"/>
-      <c r="D97" s="43"/>
-    </row>
-    <row r="98" spans="1:5" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="D98" s="43" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C99" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C103" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C104" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C105" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A106" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C106" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A107" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C107" s="62" t="s">
-        <v>262</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A110" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C110" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A112" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C112" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A113" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B113" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C113" s="62" t="s">
-        <v>270</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A114" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B114" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C114" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A115" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B115" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C115" s="62" t="s">
-        <v>272</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A116" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B116" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C116" s="62" t="s">
-        <v>274</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3989,50 +3306,50 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>352</v>
+        <v>293</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>353</v>
+        <v>294</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>354</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>355</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
@@ -4040,13 +3357,13 @@
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>10</v>
@@ -4068,13 +3385,13 @@
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>10</v>
@@ -4082,13 +3399,13 @@
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>10</v>
@@ -4097,7 +3414,7 @@
         <v>224535009</v>
       </c>
       <c r="F7" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4108,27 +3425,27 @@
         <v>36682004</v>
       </c>
       <c r="C8" t="s">
-        <v>357</v>
+        <v>298</v>
       </c>
       <c r="D8" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
       <c r="E8">
         <v>36682004</v>
       </c>
       <c r="F8" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>358</v>
+        <v>299</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>359</v>
+        <v>300</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>10</v>
@@ -4137,32 +3454,32 @@
         <v>80546007</v>
       </c>
       <c r="F9" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>180</v>
+      <c r="A11" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>152</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>10</v>
@@ -4170,111 +3487,111 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>146</v>
+      <c r="A13" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>121</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>186</v>
+      <c r="A14" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>156</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>192</v>
+      <c r="A15" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>160</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>196</v>
+      <c r="A16" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>162</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>94</v>
+      <c r="A17" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>69</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>90</v>
+      <c r="A18" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>65</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>130</v>
+      <c r="A19" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>105</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>10</v>
@@ -4311,58 +3628,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
       <c r="C1" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="D1" t="s">
-        <v>363</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>364</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>365</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>366</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4376,21 +3693,21 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>365</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4439,7 +3756,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -4447,30 +3764,30 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4478,24 +3795,24 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -4506,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4552,15 +3869,15 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -4568,7 +3885,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -4576,7 +3893,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -4584,7 +3901,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -4592,7 +3909,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -4600,208 +3917,208 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E14">
         <v>4278275001</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E19">
         <v>3668788925</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -4809,24 +4126,24 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="E25">
         <v>224535009</v>
@@ -4834,27 +4151,27 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="D26" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="E27">
         <v>36682004</v>
@@ -4862,7 +4179,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="E28">
         <v>80546007</v>
@@ -4870,27 +4187,27 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="D29" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -4901,80 +4218,80 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="D33" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="D34" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="D35" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="D37" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5017,15 +4334,15 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -5033,7 +4350,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -5041,7 +4358,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -5049,7 +4366,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5057,154 +4374,154 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E16">
         <v>3668788925</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -5212,33 +4529,33 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="F20" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="D21" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="E21">
         <v>36682004</v>
@@ -5246,16 +4563,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="E22">
         <v>36682004</v>
@@ -5263,16 +4580,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="D23" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="E23">
         <v>80546007</v>
@@ -5280,16 +4597,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="E24">
         <v>80546007</v>
@@ -5297,16 +4614,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="E25">
         <v>36682004</v>
@@ -5314,16 +4631,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="D26" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
@@ -5331,16 +4648,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="E27">
         <v>36682004</v>
@@ -5348,7 +4665,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -5359,66 +4676,66 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="C31" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="D31" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="D32" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="D34" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5469,15 +4786,15 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -5485,7 +4802,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -5493,15 +4810,15 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -5509,7 +4826,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5517,112 +4834,112 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>4278275001</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E16">
         <v>3668788925</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -5630,33 +4947,33 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="E19" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="E20">
         <v>159026005</v>
@@ -5664,16 +4981,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="E21">
         <v>159026005</v>
@@ -5681,33 +4998,33 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="D22" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="D23" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="E23">
         <v>159026005</v>
@@ -5715,16 +5032,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
@@ -5732,7 +5049,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -5743,80 +5060,80 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="D27" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="C28" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="D28" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="B29" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="D29" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="D30" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="D32" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5859,23 +5176,23 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -5883,30 +5200,30 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5914,24 +5231,24 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -5942,10 +5259,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5988,15 +5305,15 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -6004,132 +5321,132 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="F10" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="F11" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>313</v>
+        <v>254</v>
       </c>
       <c r="B12" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -6137,24 +5454,24 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6165,10 +5482,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6211,23 +5528,23 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -6235,130 +5552,130 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="E8">
         <v>11223344</v>
       </c>
       <c r="F8" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="E9">
         <v>987654</v>
       </c>
       <c r="F9" t="s">
-        <v>321</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="E10">
         <v>9941339108</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="E11">
         <v>987657</v>
       </c>
       <c r="F11" t="s">
-        <v>326</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="E12">
         <v>9941339109</v>
       </c>
       <c r="F12" t="s">
-        <v>328</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -6366,24 +5683,24 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6394,21 +5711,21 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>329</v>
+        <v>270</v>
       </c>
       <c r="B19" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -6454,7 +5771,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -6462,7 +5779,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -6470,7 +5787,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -6478,272 +5795,272 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>9876543210</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E9">
         <v>1928374650</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>2345678901</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>1098326745</v>
       </c>
       <c r="F13" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E15">
         <v>3668788925</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E16">
         <v>9018273645</v>
       </c>
       <c r="F16" t="s">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E17">
         <v>4567123789</v>
       </c>
       <c r="F17" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -6751,36 +6068,36 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="F20" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="D21" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F21">
         <v>394601005</v>
@@ -6788,19 +6105,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="D22" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F22">
         <v>408443003</v>
@@ -6808,13 +6125,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F23">
         <v>394591006</v>
@@ -6822,10 +6139,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
@@ -6836,19 +6153,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="D25" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F25">
         <v>394601005</v>
@@ -6856,19 +6173,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>343</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="D26" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F26">
         <v>408443003</v>
@@ -6876,19 +6193,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="D27" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F27">
         <v>394601005</v>
@@ -6896,19 +6213,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="D28" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F28">
         <v>408443003</v>
@@ -6916,19 +6233,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="D29" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F29">
         <v>408443003</v>
@@ -6936,19 +6253,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F30">
         <v>394601005</v>
@@ -6956,7 +6273,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -6967,38 +6284,38 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="D34" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D35" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -7042,7 +6359,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -7050,7 +6367,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -7058,7 +6375,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -7066,7 +6383,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -7074,292 +6391,292 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E9">
         <v>9876543210</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E10">
         <v>1928374650</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E12">
         <v>2345678901</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E14">
         <v>1098326745</v>
       </c>
       <c r="F14" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E16">
         <v>3668788925</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E17">
         <v>9018273645</v>
       </c>
       <c r="F17" t="s">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E18">
         <v>4567123789</v>
       </c>
       <c r="F18" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -7367,36 +6684,36 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="E22" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="D23" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F23">
         <v>394601005</v>
@@ -7404,19 +6721,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="D24" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F24">
         <v>408443003</v>
@@ -7424,13 +6741,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F25">
         <v>394591006</v>
@@ -7438,10 +6755,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
@@ -7452,19 +6769,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="D27" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F27">
         <v>394601005</v>
@@ -7472,19 +6789,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>343</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="D28" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F28">
         <v>408443003</v>
@@ -7492,19 +6809,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="D29" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F29">
         <v>394601005</v>
@@ -7512,19 +6829,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F30">
         <v>408443003</v>
@@ -7532,19 +6849,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="D31" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F31">
         <v>408443003</v>
@@ -7552,19 +6869,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="D32" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F32">
         <v>394601005</v>
@@ -7572,24 +6889,24 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>348</v>
+        <v>289</v>
       </c>
       <c r="D33" t="s">
-        <v>351</v>
+        <v>292</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -7600,52 +6917,52 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="D36" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="D37" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D38" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>351</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="D39" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
